--- a/openpyxl/2_workbook_and_worksheet_objects/2.2_access-worksheets/my_workbook.xlsx
+++ b/openpyxl/2_workbook_and_worksheet_objects/2.2_access-worksheets/my_workbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\python\openpyxl\2_workbook_and_worksheet_objects\2.2_access-worksheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64680B34-F891-42E9-99E0-20B10504D66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0EC26F-6EBA-4F06-87A8-1B3A8D743795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-12015" yWindow="23325" windowWidth="12375" windowHeight="11400" activeTab="3" xr2:uid="{82EDE2A1-3675-433C-AD2B-492A1CF15526}"/>
   </bookViews>
